--- a/SP_Sklad/TempLate/Delivery.xlsx
+++ b/SP_Sklad/TempLate/Delivery.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="135" yWindow="840" windowWidth="14175" windowHeight="7260"/>
@@ -10,26 +10,25 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="ChargeTypeGroup">Лист1!$A$9:$F$12</definedName>
-    <definedName name="DocList">Лист1!$A$10:$F$11</definedName>
+    <definedName name="CarGroup">Лист1!$A$9:$G$12</definedName>
+    <definedName name="ChargeTypeGroup">Лист1!#REF!</definedName>
+    <definedName name="DocList">Лист1!#REF!</definedName>
     <definedName name="INCOMES">Лист1!#REF!</definedName>
     <definedName name="range1">Лист1!#REF!</definedName>
     <definedName name="sectionPrice">Лист1!#REF!</definedName>
+    <definedName name="WaybillList">Лист1!$A$10:$G$11</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Лист1!$7:$8</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>Дата</t>
   </si>
   <si>
-    <t>Сума</t>
-  </si>
-  <si>
     <t>Період:</t>
   </si>
   <si>
@@ -42,30 +41,36 @@
     <t>Стаття витрат</t>
   </si>
   <si>
-    <t>ЗВІТ ПРО ЗАТРАТИ</t>
-  </si>
-  <si>
     <t>sum</t>
   </si>
   <si>
     <t>Разом по звіту:</t>
   </si>
   <si>
-    <t>Разом по катогорії:</t>
-  </si>
-  <si>
     <t>Видав</t>
+  </si>
+  <si>
+    <t>Вага</t>
+  </si>
+  <si>
+    <t>Ящики</t>
+  </si>
+  <si>
+    <t>Доставка</t>
+  </si>
+  <si>
+    <t>Разом по машині:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="mm/dd/yy"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yy\ h:mm;@"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13">
     <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
@@ -141,7 +146,13 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
+      <color indexed="18"/>
+      <name val="Times New Roman Cyr"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color indexed="18"/>
       <name val="Times New Roman Cyr"/>
       <charset val="204"/>
@@ -326,7 +337,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -340,74 +351,86 @@
     <xf numFmtId="165" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="2" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="22" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="22" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -566,7 +589,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -601,7 +623,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -777,55 +798,56 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="B1:F14"/>
+  <dimension ref="B1:G14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="1" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="49" style="1" customWidth="1"/>
-    <col min="5" max="5" width="32.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="11.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="48.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="7" width="13.42578125" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-    </row>
-    <row r="2" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-    </row>
-    <row r="3" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:7" ht="27" customHeight="1">
+      <c r="B1" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+    </row>
+    <row r="2" spans="2:7" ht="12" customHeight="1">
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+    </row>
+    <row r="3" spans="2:7" ht="15" customHeight="1">
       <c r="B3" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" s="4" t="e">
         <f>CONCATENATE("з "&amp;XLRPARAMS_StartDate," по "&amp;XLRPARAMS_EndDate)</f>
         <v>#NAME?</v>
       </c>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="2:7" ht="0.75" hidden="1" customHeight="1">
       <c r="B4" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" s="4" t="e">
         <f>XLRPARAMS_KAID</f>
@@ -833,11 +855,12 @@
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F4" s="4"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="2:7" ht="13.5" hidden="1" customHeight="1">
       <c r="B5" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" s="4" t="e">
         <f>XLRPARAMS_ctype</f>
@@ -845,114 +868,137 @@
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="2:6" ht="7.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="24" t="s">
+      <c r="F5" s="4"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="2:7" ht="7.5" customHeight="1"/>
+    <row r="7" spans="2:7" ht="14.25" customHeight="1">
+      <c r="B7" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="24" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="25"/>
-    </row>
-    <row r="9" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="19" t="e">
-        <f>ChargeTypeGroup_ChargeName</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="21"/>
-    </row>
-    <row r="10" spans="2:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E7" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="20"/>
+    </row>
+    <row r="9" spans="2:7" ht="18" customHeight="1">
+      <c r="B9" s="29" t="e">
+        <f>CarGroup_CarName</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="C9" s="30"/>
+      <c r="D9" s="31" t="e">
+        <f>CarGroup_CarNumber</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="33"/>
+    </row>
+    <row r="10" spans="2:7" ht="12.75" customHeight="1">
       <c r="B10" s="5" t="e">
-        <f>DocList_DOCNUM</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C10" s="11" t="e">
-        <f>DocList_ONDATE</f>
+        <f>WaybillList_Num</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="C10" s="9" t="e">
+        <f>WaybillList_OnDate</f>
         <v>#NAME?</v>
       </c>
       <c r="D10" s="6" t="e">
-        <f>DocList_NAME</f>
+        <f>WaybillList_KaName</f>
         <v>#NAME?</v>
       </c>
       <c r="E10" s="6" t="e">
         <f>DocList_EmployeeName</f>
         <v>#NAME?</v>
       </c>
-      <c r="F10" s="7" t="e">
-        <f>DocList_TOTAL</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="27"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="10"/>
-    </row>
-    <row r="13" spans="2:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="10"/>
-    </row>
-    <row r="14" spans="2:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="17"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="8" t="e">
-        <f>SummaryField_Total</f>
+      <c r="F10" s="15" t="e">
+        <f>WaybillList_TotalKg</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G10" s="13" t="e">
+        <f>WaybillList_TotalTmc</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="12.75" customHeight="1">
+      <c r="B11" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="23"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="12.75" customHeight="1">
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="8"/>
+    </row>
+    <row r="13" spans="2:7" ht="12.75" customHeight="1">
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="8"/>
+    </row>
+    <row r="14" spans="2:7" ht="12.75" customHeight="1">
+      <c r="B14" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="27"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="7" t="e">
+        <f>SummaryField_TotalKg</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G14" s="17" t="e">
+        <f>SummaryField_TotalTmc</f>
         <v>#NAME?</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
     <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="B1:G1"/>
     <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="G7:G8"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="C7:C8"/>
-    <mergeCell ref="B11:D11"/>
     <mergeCell ref="E7:E8"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/SP_Sklad/TempLate/Delivery.xlsx
+++ b/SP_Sklad/TempLate/Delivery.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>Дата</t>
   </si>
@@ -38,9 +38,6 @@
     <t>Отримувач</t>
   </si>
   <si>
-    <t>Стаття витрат</t>
-  </si>
-  <si>
     <t>sum</t>
   </si>
   <si>
@@ -60,6 +57,12 @@
   </si>
   <si>
     <t>Разом по машині:</t>
+  </si>
+  <si>
+    <t>Водій</t>
+  </si>
+  <si>
+    <t>Машина</t>
   </si>
 </sst>
 </file>
@@ -384,53 +387,53 @@
     <xf numFmtId="1" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -802,9 +805,7 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="B1:G14"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -818,24 +819,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="27" customHeight="1">
-      <c r="B1" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
+      <c r="B1" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
     </row>
     <row r="2" spans="2:7" ht="12" customHeight="1">
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-    </row>
-    <row r="3" spans="2:7" ht="15" customHeight="1">
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+    </row>
+    <row r="3" spans="2:7" ht="17.25" customHeight="1">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -845,12 +846,12 @@
       </c>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="2:7" ht="0.75" hidden="1" customHeight="1">
+    <row r="4" spans="2:7" ht="17.25" customHeight="1">
       <c r="B4" s="3" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C4" s="4" t="e">
-        <f>XLRPARAMS_KAID</f>
+        <f>XLRPARAMS_DriverName</f>
         <v>#NAME?</v>
       </c>
       <c r="D4" s="4"/>
@@ -858,12 +859,12 @@
       <c r="F4" s="4"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="2:7" ht="13.5" hidden="1" customHeight="1">
+    <row r="5" spans="2:7" ht="17.25" customHeight="1">
       <c r="B5" s="3" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C5" s="4" t="e">
-        <f>XLRPARAMS_ctype</f>
+        <f>XLRPARAMS_CarName</f>
         <v>#NAME?</v>
       </c>
       <c r="D5" s="4"/>
@@ -873,46 +874,46 @@
     </row>
     <row r="6" spans="2:7" ht="7.5" customHeight="1"/>
     <row r="7" spans="2:7" ht="14.25" customHeight="1">
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="19" t="s">
+      <c r="G7" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="19" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="8" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="20"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="33"/>
     </row>
     <row r="9" spans="2:7" ht="18" customHeight="1">
-      <c r="B9" s="29" t="e">
+      <c r="B9" s="28" t="e">
         <f>CarGroup_CarName</f>
         <v>#NAME?</v>
       </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="31" t="e">
+      <c r="C9" s="29"/>
+      <c r="D9" s="18" t="e">
         <f>CarGroup_CarNumber</f>
         <v>#NAME?</v>
       </c>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="33"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="20"/>
     </row>
     <row r="10" spans="2:7" ht="12.75" customHeight="1">
       <c r="B10" s="5" t="e">
@@ -941,23 +942,23 @@
       </c>
     </row>
     <row r="11" spans="2:7" ht="12.75" customHeight="1">
-      <c r="B11" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="23"/>
-      <c r="D11" s="24"/>
+      <c r="B11" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="22"/>
+      <c r="D11" s="23"/>
       <c r="E11" s="12"/>
       <c r="F11" s="16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="2:7" ht="12.75" customHeight="1">
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
       <c r="G12" s="8"/>
@@ -971,11 +972,11 @@
       <c r="G13" s="8"/>
     </row>
     <row r="14" spans="2:7" ht="12.75" customHeight="1">
-      <c r="B14" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="27"/>
-      <c r="D14" s="28"/>
+      <c r="B14" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="26"/>
+      <c r="D14" s="27"/>
       <c r="E14" s="10"/>
       <c r="F14" s="7" t="e">
         <f>SummaryField_TotalKg</f>
@@ -988,11 +989,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="F7:F8"/>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="B2:G2"/>
@@ -1000,6 +996,11 @@
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="E7:E8"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="F7:F8"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
